--- a/SequencingSummary/20220616_L1_fastq_SequencingSummary.xlsx
+++ b/SequencingSummary/20220616_L1_fastq_SequencingSummary.xlsx
@@ -254,10 +254,10 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.11"/>
@@ -665,61 +665,17 @@
         <v>0.180815061252858</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="n">
-        <v>20220616</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1" t="n">
-        <v>20220616</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1" t="n">
-        <v>20220616</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1" t="n">
-        <v>20220616</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1" t="n">
-        <v>20220616</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1" t="n">
-        <v>20220616</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1" t="n">
-        <v>20220616</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="1" t="n">
-        <v>20220616</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1" t="n">
-        <v>20220616</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1" t="n">
-        <v>20220616</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="1" t="n">
-        <v>20220616</v>
-      </c>
-    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
